--- a/Resultados/Todas as respostas.xlsx
+++ b/Resultados/Todas as respostas.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Documents\Mestrado\Dissertação\Resultados\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1E0F7D-F581-43D2-8BCC-A89B9FE1E397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
+    <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="267">
   <si>
     <t>Participante:</t>
   </si>
@@ -686,9 +695,6 @@
   </si>
   <si>
     <t>Não</t>
-  </si>
-  <si>
-    <t>N]ao</t>
   </si>
   <si>
     <t>Bengala. Achou ela mais precisa</t>
@@ -821,24 +827,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -847,11 +863,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -865,58 +887,56 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1106,23 +1126,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:HL18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="12.5"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:220" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1784,12 +1810,12 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:220" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>220</v>
       </c>
       <c r="B2" s="6">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>221</v>
@@ -1798,1104 +1824,1104 @@
         <v>222</v>
       </c>
       <c r="E2" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F2" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H2" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I2" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>223</v>
       </c>
       <c r="K2" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L2" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="M2" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="N2" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="O2" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="P2" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="Q2" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="R2" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="S2" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="T2" s="6">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="U2" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="V2" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="W2" s="6">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="X2" s="6">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="Y2" s="6">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="Z2" s="6">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AA2" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AB2" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AC2" s="6">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="AD2" s="6">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AE2" s="6">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="AF2" s="6">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AG2" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AH2" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AI2" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AJ2" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AK2" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AL2" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AM2" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AN2" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AO2" s="1" t="s">
         <v>224</v>
       </c>
       <c r="AP2" s="6">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="AQ2" s="6">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="AR2" s="6">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AS2" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AT2" s="6">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AU2" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AV2" s="6">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="AW2" s="6">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="AX2" s="6">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AY2" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AZ2" s="6">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="BA2" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="BB2" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="BC2" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="BD2" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BE2" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BF2" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="BG2" s="1" t="s">
         <v>224</v>
       </c>
       <c r="BH2" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BI2" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BJ2" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BK2" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BL2" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="BM2" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BN2" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BO2" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BP2" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BQ2" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BR2" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="BS2" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BT2" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BU2" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BV2" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="BW2" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="BX2" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="BY2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="BZ2" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="CA2" s="6">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="CB2" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="CC2" s="6">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="CD2" s="6">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="CE2" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="CF2" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="CG2" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="CH2" s="6">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="CI2" s="6">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="CJ2" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="CK2" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="CL2" s="6">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="CM2" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="CN2" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="CO2" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="CP2" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="CQ2" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="CR2" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="CS2" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="CT2" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="CU2" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="CV2" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="CW2" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="CX2" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="CY2" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="CZ2" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="DA2" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="DB2" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="DC2" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="DD2" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="DE2" s="1" t="s">
         <v>224</v>
       </c>
       <c r="DF2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="DG2" s="6">
+        <v>1</v>
+      </c>
+      <c r="DH2" s="6">
+        <v>1</v>
+      </c>
+      <c r="DI2" s="6">
+        <v>1</v>
+      </c>
+      <c r="DJ2" s="6">
+        <v>1</v>
+      </c>
+      <c r="DK2" s="6">
+        <v>1</v>
+      </c>
+      <c r="DL2" s="6">
+        <v>1</v>
+      </c>
+      <c r="DM2" s="6">
+        <v>1</v>
+      </c>
+      <c r="DN2" s="6">
+        <v>1</v>
+      </c>
+      <c r="DO2" s="6">
+        <v>1</v>
+      </c>
+      <c r="DP2" s="6">
+        <v>1</v>
+      </c>
+      <c r="DQ2" s="6">
+        <v>1</v>
+      </c>
+      <c r="DR2" s="6">
+        <v>1</v>
+      </c>
+      <c r="DS2" s="6">
+        <v>1</v>
+      </c>
+      <c r="DT2" s="6">
+        <v>1</v>
+      </c>
+      <c r="DU2" s="6">
+        <v>1</v>
+      </c>
+      <c r="DV2" s="6">
+        <v>1</v>
+      </c>
+      <c r="DW2" s="6">
+        <v>1</v>
+      </c>
+      <c r="DX2" s="6">
+        <v>1</v>
+      </c>
+      <c r="DY2" s="6">
+        <v>1</v>
+      </c>
+      <c r="DZ2" s="6">
+        <v>1</v>
+      </c>
+      <c r="EA2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="DG2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DH2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DI2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DJ2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DK2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DL2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DM2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DN2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DO2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DP2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DQ2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DR2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DS2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DT2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DU2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DV2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DW2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DX2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DY2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DZ2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EA2" s="1" t="s">
+      <c r="EB2" s="6">
+        <v>0</v>
+      </c>
+      <c r="EC2" s="6">
+        <v>0</v>
+      </c>
+      <c r="ED2" s="6">
+        <v>0</v>
+      </c>
+      <c r="EE2" s="6">
+        <v>1</v>
+      </c>
+      <c r="EF2" s="6">
+        <v>0</v>
+      </c>
+      <c r="EG2" s="6">
+        <v>1</v>
+      </c>
+      <c r="EH2" s="6">
+        <v>1</v>
+      </c>
+      <c r="EI2" s="6">
+        <v>1</v>
+      </c>
+      <c r="EJ2" s="6">
+        <v>0</v>
+      </c>
+      <c r="EK2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="EL2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="EM2" s="6">
+        <v>1</v>
+      </c>
+      <c r="EN2" s="6">
+        <v>1</v>
+      </c>
+      <c r="EO2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="EP2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="EQ2" s="6">
+        <v>1</v>
+      </c>
+      <c r="ER2" s="6">
+        <v>1</v>
+      </c>
+      <c r="ES2" s="6">
+        <v>0</v>
+      </c>
+      <c r="ET2" s="6">
+        <v>0</v>
+      </c>
+      <c r="EU2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="EB2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="EC2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="ED2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="EE2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EF2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="EG2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EH2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EI2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EJ2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="EK2" s="1" t="s">
+      <c r="EV2" s="6">
+        <v>0</v>
+      </c>
+      <c r="EW2" s="6">
+        <v>1</v>
+      </c>
+      <c r="EX2" s="6">
+        <v>1</v>
+      </c>
+      <c r="EY2" s="6">
+        <v>1</v>
+      </c>
+      <c r="EZ2" s="6">
+        <v>0</v>
+      </c>
+      <c r="FA2" s="6">
+        <v>1</v>
+      </c>
+      <c r="FB2" s="6">
+        <v>0</v>
+      </c>
+      <c r="FC2" s="6">
+        <v>0</v>
+      </c>
+      <c r="FD2" s="6">
+        <v>0</v>
+      </c>
+      <c r="FE2" s="6">
+        <v>1</v>
+      </c>
+      <c r="FF2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="FG2" s="6">
+        <v>1</v>
+      </c>
+      <c r="FH2" s="6">
+        <v>1</v>
+      </c>
+      <c r="FI2" s="6">
+        <v>1</v>
+      </c>
+      <c r="FJ2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="FK2" s="6">
+        <v>0</v>
+      </c>
+      <c r="FL2" s="6">
+        <v>0</v>
+      </c>
+      <c r="FM2" s="6">
+        <v>0</v>
+      </c>
+      <c r="FN2" s="6">
+        <v>0</v>
+      </c>
+      <c r="FO2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="EL2" s="1" t="s">
+      <c r="FP2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="EM2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EN2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EO2" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="EP2" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="EQ2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="ER2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="ES2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="ET2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="EU2" s="1" t="s">
+      <c r="FQ2" s="6">
+        <v>0</v>
+      </c>
+      <c r="FR2" s="6">
+        <v>0</v>
+      </c>
+      <c r="FS2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="FT2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="FU2" s="6">
+        <v>1</v>
+      </c>
+      <c r="FV2" s="6">
+        <v>0</v>
+      </c>
+      <c r="FW2" s="6">
+        <v>0</v>
+      </c>
+      <c r="FX2" s="6">
+        <v>0</v>
+      </c>
+      <c r="FY2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="FZ2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="GA2" s="6">
+        <v>1</v>
+      </c>
+      <c r="GB2" s="6">
+        <v>1</v>
+      </c>
+      <c r="GC2" s="6">
+        <v>1</v>
+      </c>
+      <c r="GD2" s="6">
+        <v>1</v>
+      </c>
+      <c r="GE2" s="6">
+        <v>0</v>
+      </c>
+      <c r="GF2" s="6">
+        <v>0</v>
+      </c>
+      <c r="GG2" s="6">
+        <v>0</v>
+      </c>
+      <c r="GH2" s="6">
+        <v>0</v>
+      </c>
+      <c r="GI2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="GJ2" s="6">
+        <v>0</v>
+      </c>
+      <c r="GK2" s="6">
+        <v>1</v>
+      </c>
+      <c r="GL2" s="6">
+        <v>0</v>
+      </c>
+      <c r="GM2" s="6">
+        <v>1</v>
+      </c>
+      <c r="GN2" s="6">
+        <v>0</v>
+      </c>
+      <c r="GO2" s="6">
+        <v>1</v>
+      </c>
+      <c r="GP2" s="6">
+        <v>1</v>
+      </c>
+      <c r="GQ2" s="6">
+        <v>1</v>
+      </c>
+      <c r="GR2" s="6">
+        <v>1</v>
+      </c>
+      <c r="GS2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="GT2" s="6">
+        <v>0</v>
+      </c>
+      <c r="GU2" s="6">
+        <v>1</v>
+      </c>
+      <c r="GV2" s="6">
+        <v>1</v>
+      </c>
+      <c r="GW2" s="6">
+        <v>1</v>
+      </c>
+      <c r="GX2" s="6">
+        <v>0</v>
+      </c>
+      <c r="GY2" s="6">
+        <v>1</v>
+      </c>
+      <c r="GZ2" s="6">
+        <v>0</v>
+      </c>
+      <c r="HA2" s="6">
+        <v>0</v>
+      </c>
+      <c r="HB2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:220" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="EV2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="EW2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EX2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EY2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EZ2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FA2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FB2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FC2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FD2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FE2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FF2" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="FG2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FH2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FI2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FJ2" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="FK2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FL2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FM2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FN2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FO2" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="FP2" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="FQ2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FR2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FS2" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="FT2" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="FU2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FV2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FW2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FX2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FY2" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="FZ2" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="GA2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GB2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GC2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GD2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GE2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="GF2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="GG2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="GH2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="GI2" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="GJ2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="GK2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GL2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="GM2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GN2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="GO2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GP2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GQ2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GR2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GS2" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="GT2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="GU2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GV2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GW2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GX2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="GY2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GZ2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="HA2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="HB2" s="6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="B3" s="6">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>221</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E3" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F3" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G3" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>223</v>
       </c>
       <c r="K3" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L3" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="O3" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P3" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Q3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T3" s="6">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="U3" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="V3" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="W3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z3" s="6">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="AA3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AB3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AD3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AF3" s="6">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="AG3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AH3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AI3" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AJ3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AK3" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AL3" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AM3" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AN3" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AO3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AP3" s="6">
+        <v>14</v>
+      </c>
+      <c r="AQ3" s="6">
+        <v>8</v>
+      </c>
+      <c r="AR3" s="6">
+        <v>2</v>
+      </c>
+      <c r="AS3" s="6">
+        <v>5</v>
+      </c>
+      <c r="AT3" s="6">
+        <v>12</v>
+      </c>
+      <c r="AU3" s="6">
+        <v>12</v>
+      </c>
+      <c r="AV3" s="6">
+        <v>10</v>
+      </c>
+      <c r="AW3" s="6">
+        <v>6</v>
+      </c>
+      <c r="AX3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="6">
+        <v>9</v>
+      </c>
+      <c r="AZ3" s="6">
+        <v>6</v>
+      </c>
+      <c r="BA3" s="6">
+        <v>8</v>
+      </c>
+      <c r="BB3" s="6">
+        <v>5</v>
+      </c>
+      <c r="BC3" s="6">
+        <v>1</v>
+      </c>
+      <c r="BD3" s="6">
+        <v>5</v>
+      </c>
+      <c r="BE3" s="6">
+        <v>5</v>
+      </c>
+      <c r="BF3" s="6">
+        <v>3</v>
+      </c>
+      <c r="BG3" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="AP3" s="6">
-        <v>14.0</v>
-      </c>
-      <c r="AQ3" s="6">
-        <v>8.0</v>
-      </c>
-      <c r="AR3" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="AS3" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="AT3" s="6">
-        <v>12.0</v>
-      </c>
-      <c r="AU3" s="6">
-        <v>12.0</v>
-      </c>
-      <c r="AV3" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="AW3" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="AX3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="AY3" s="6">
-        <v>9.0</v>
-      </c>
-      <c r="AZ3" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="BA3" s="6">
-        <v>8.0</v>
-      </c>
-      <c r="BB3" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="BC3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="BD3" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="BE3" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="BF3" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="BG3" s="1" t="s">
+      <c r="BH3" s="6">
+        <v>3</v>
+      </c>
+      <c r="BI3" s="6">
+        <v>3</v>
+      </c>
+      <c r="BJ3" s="6">
+        <v>1</v>
+      </c>
+      <c r="BK3" s="6">
+        <v>18</v>
+      </c>
+      <c r="BL3" s="6">
+        <v>3</v>
+      </c>
+      <c r="BM3" s="6">
+        <v>3</v>
+      </c>
+      <c r="BN3" s="6">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="6">
+        <v>2</v>
+      </c>
+      <c r="BP3" s="6">
+        <v>1</v>
+      </c>
+      <c r="BQ3" s="6">
+        <v>19</v>
+      </c>
+      <c r="BR3" s="6">
+        <v>2</v>
+      </c>
+      <c r="BS3" s="6">
+        <v>1</v>
+      </c>
+      <c r="BT3" s="6">
+        <v>5</v>
+      </c>
+      <c r="BU3" s="6">
+        <v>3</v>
+      </c>
+      <c r="BV3" s="6">
+        <v>6</v>
+      </c>
+      <c r="BW3" s="6">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="6">
+        <v>1</v>
+      </c>
+      <c r="BY3" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="BH3" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="BI3" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="BJ3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="BK3" s="6">
-        <v>18.0</v>
-      </c>
-      <c r="BL3" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="BM3" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="BN3" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="BO3" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="BP3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="BQ3" s="6">
-        <v>19.0</v>
-      </c>
-      <c r="BR3" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="BS3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="BT3" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="BU3" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="BV3" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="BW3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="BX3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="BY3" s="1" t="s">
+      <c r="BZ3" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="BZ3" s="1" t="s">
+      <c r="CA3" s="6">
+        <v>6</v>
+      </c>
+      <c r="CB3" s="6">
+        <v>6</v>
+      </c>
+      <c r="CC3" s="6">
+        <v>1</v>
+      </c>
+      <c r="CD3" s="6">
+        <v>14</v>
+      </c>
+      <c r="CE3" s="6">
+        <v>6</v>
+      </c>
+      <c r="CF3" s="6">
+        <v>5</v>
+      </c>
+      <c r="CG3" s="6">
+        <v>6</v>
+      </c>
+      <c r="CH3" s="6">
+        <v>6</v>
+      </c>
+      <c r="CI3" s="6">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="6">
+        <v>16</v>
+      </c>
+      <c r="CK3" s="6">
+        <v>4</v>
+      </c>
+      <c r="CL3" s="6">
+        <v>4</v>
+      </c>
+      <c r="CM3" s="6">
+        <v>2</v>
+      </c>
+      <c r="CN3" s="6">
+        <v>3</v>
+      </c>
+      <c r="CO3" s="6">
+        <v>0</v>
+      </c>
+      <c r="CP3" s="6">
+        <v>0</v>
+      </c>
+      <c r="CQ3" s="6">
+        <v>0</v>
+      </c>
+      <c r="CR3" s="6">
+        <v>0</v>
+      </c>
+      <c r="CS3" s="6">
+        <v>6</v>
+      </c>
+      <c r="CT3" s="6">
+        <v>1</v>
+      </c>
+      <c r="CU3" s="6">
+        <v>1</v>
+      </c>
+      <c r="CV3" s="6">
+        <v>6</v>
+      </c>
+      <c r="CW3" s="6">
+        <v>1</v>
+      </c>
+      <c r="CX3" s="6">
+        <v>0</v>
+      </c>
+      <c r="CY3" s="6">
+        <v>3</v>
+      </c>
+      <c r="CZ3" s="6">
+        <v>5</v>
+      </c>
+      <c r="DA3" s="6">
+        <v>3</v>
+      </c>
+      <c r="DB3" s="6">
+        <v>5</v>
+      </c>
+      <c r="DC3" s="6">
+        <v>1</v>
+      </c>
+      <c r="DD3" s="6">
+        <v>2</v>
+      </c>
+      <c r="DE3" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="CA3" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="CB3" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="CC3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="CD3" s="6">
-        <v>14.0</v>
-      </c>
-      <c r="CE3" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="CF3" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="CG3" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="CH3" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="CI3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="CJ3" s="6">
-        <v>16.0</v>
-      </c>
-      <c r="CK3" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="CL3" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="CM3" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="CN3" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="CO3" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="CP3" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="CQ3" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="CR3" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="CS3" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="CT3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="CU3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="CV3" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="CW3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="CX3" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="CY3" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="CZ3" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="DA3" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="DB3" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="DC3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DD3" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="DE3" s="1" t="s">
+      <c r="DF3" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="DF3" s="1" t="s">
+      <c r="DG3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="DH3" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="DG3" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="DH3" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="DI3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="DJ3" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="DK3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="DL3" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="DM3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="DN3" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="DO3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="DP3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="DQ3" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="DR3" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="DS3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="DT3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="DU3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="DV3" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="DW3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="DX3" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="DY3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="DZ3" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="EA3" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="EB3" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="EC3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="ED3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="EE3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="EF3" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="EG3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="EH3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="EI3" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="EJ3" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="EK3" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="EL3" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="EM3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="EN3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="EO3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="EP3" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="EQ3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="ER3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="ES3" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="ET3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="EU3" s="6">
         <v>0.33</v>
       </c>
       <c r="EV3" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="EW3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="EX3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="EY3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="EZ3" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="FA3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="FB3" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="FC3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="FD3" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="FE3" s="6">
         <v>0.5</v>
@@ -2904,28 +2930,28 @@
         <v>0.5</v>
       </c>
       <c r="FG3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="FH3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="FI3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="FJ3" s="6">
         <v>0.5</v>
       </c>
       <c r="FK3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="FL3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="FM3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="FN3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="FO3" s="6">
         <v>0.33</v>
@@ -2934,444 +2960,444 @@
         <v>0.5</v>
       </c>
       <c r="FQ3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="FR3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="FS3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="FT3" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="FU3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="FV3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="FW3" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="FX3" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="FY3" s="6">
         <v>0.5</v>
       </c>
       <c r="FZ3" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="GA3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GB3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GC3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GD3" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="GE3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GF3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GG3" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="GH3" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="GI3" s="6">
         <v>0.5</v>
       </c>
       <c r="GJ3" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="GK3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GL3" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="GM3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GN3" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="GO3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GP3" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="GQ3" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="GR3" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="GS3" s="6">
         <v>0.5</v>
       </c>
       <c r="GT3" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="GU3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GV3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GW3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GX3" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="GY3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GZ3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="HA3" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="HB3" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:220" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" s="6">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>221</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E4" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H4" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>223</v>
       </c>
       <c r="K4" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="6">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="O4" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="P4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T4" s="6">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="U4" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="V4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="6">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="AA4" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AB4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AD4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AF4" s="6">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="AG4" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AH4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AI4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AK4" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AL4" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AM4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AO4" s="1" t="s">
         <v>224</v>
       </c>
       <c r="AP4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AQ4" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AR4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AS4" s="6">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="AT4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AU4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AV4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AW4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AX4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="6">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="AZ4" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BA4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BB4" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BC4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BD4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BE4" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="BF4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BG4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="BH4" s="6">
+        <v>10</v>
+      </c>
+      <c r="BI4" s="6">
+        <v>6</v>
+      </c>
+      <c r="BJ4" s="6">
+        <v>1</v>
+      </c>
+      <c r="BK4" s="6">
+        <v>20</v>
+      </c>
+      <c r="BL4" s="6">
+        <v>16</v>
+      </c>
+      <c r="BM4" s="6">
+        <v>1</v>
+      </c>
+      <c r="BN4" s="6">
+        <v>10</v>
+      </c>
+      <c r="BO4" s="6">
+        <v>5</v>
+      </c>
+      <c r="BP4" s="6">
+        <v>1</v>
+      </c>
+      <c r="BQ4" s="6">
+        <v>20</v>
+      </c>
+      <c r="BR4" s="6">
+        <v>5</v>
+      </c>
+      <c r="BS4" s="6">
+        <v>1</v>
+      </c>
+      <c r="BT4" s="6">
+        <v>5</v>
+      </c>
+      <c r="BU4" s="6">
+        <v>1</v>
+      </c>
+      <c r="BV4" s="6">
+        <v>7</v>
+      </c>
+      <c r="BW4" s="6">
+        <v>1</v>
+      </c>
+      <c r="BX4" s="6">
+        <v>3</v>
+      </c>
+      <c r="BY4" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="BH4" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="BI4" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="BJ4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="BK4" s="6">
-        <v>20.0</v>
-      </c>
-      <c r="BL4" s="6">
-        <v>16.0</v>
-      </c>
-      <c r="BM4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="BN4" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="BO4" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="BP4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="BQ4" s="6">
-        <v>20.0</v>
-      </c>
-      <c r="BR4" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="BS4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="BT4" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="BU4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="BV4" s="6">
-        <v>7.0</v>
-      </c>
-      <c r="BW4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="BX4" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="BY4" s="1" t="s">
+      <c r="BZ4" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="BZ4" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="CA4" s="6">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="CB4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CC4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CD4" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="CE4" s="6">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="CF4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CG4" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="CH4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CI4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CJ4" s="6">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="CK4" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="CL4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CM4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CN4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CO4" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="CP4" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="CQ4" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="CR4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CS4" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="CT4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CU4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CV4" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="CW4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CX4" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="CY4" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="CZ4" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="DA4" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="DB4" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="DC4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="DD4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="DE4" s="1" t="s">
         <v>224</v>
@@ -3380,312 +3406,312 @@
         <v>224</v>
       </c>
       <c r="DG4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="DH4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="DI4" s="6">
+        <v>1</v>
+      </c>
+      <c r="DJ4" s="6">
+        <v>1</v>
+      </c>
+      <c r="DK4" s="6">
+        <v>1</v>
+      </c>
+      <c r="DL4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="DM4" s="6">
+        <v>0</v>
+      </c>
+      <c r="DN4" s="6">
+        <v>0</v>
+      </c>
+      <c r="DO4" s="6">
+        <v>1</v>
+      </c>
+      <c r="DP4" s="6">
+        <v>1</v>
+      </c>
+      <c r="DQ4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="DR4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="DS4" s="6">
+        <v>1</v>
+      </c>
+      <c r="DT4" s="6">
+        <v>1</v>
+      </c>
+      <c r="DU4" s="6">
+        <v>1</v>
+      </c>
+      <c r="DV4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="DW4" s="6">
+        <v>0</v>
+      </c>
+      <c r="DX4" s="6">
+        <v>0</v>
+      </c>
+      <c r="DY4" s="6">
+        <v>1</v>
+      </c>
+      <c r="DZ4" s="6">
+        <v>0</v>
+      </c>
+      <c r="EA4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="EB4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="EC4" s="6">
+        <v>0</v>
+      </c>
+      <c r="ED4" s="6">
+        <v>0</v>
+      </c>
+      <c r="EE4" s="6">
+        <v>1</v>
+      </c>
+      <c r="EF4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="EG4" s="6">
+        <v>1</v>
+      </c>
+      <c r="EH4" s="6">
+        <v>1</v>
+      </c>
+      <c r="EI4" s="6">
+        <v>0</v>
+      </c>
+      <c r="EJ4" s="6">
+        <v>0</v>
+      </c>
+      <c r="EK4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="EL4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="EM4" s="6">
+        <v>0</v>
+      </c>
+      <c r="EN4" s="6">
+        <v>0</v>
+      </c>
+      <c r="EO4" s="6">
+        <v>1</v>
+      </c>
+      <c r="EP4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="EQ4" s="6">
+        <v>1</v>
+      </c>
+      <c r="ER4" s="6">
+        <v>1</v>
+      </c>
+      <c r="ES4" s="6">
+        <v>0</v>
+      </c>
+      <c r="ET4" s="6">
+        <v>1</v>
+      </c>
+      <c r="EU4" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="DH4" s="1" t="s">
+      <c r="EV4" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="DI4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DJ4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DK4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DL4" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="DM4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="DN4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="DO4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DP4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DQ4" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="DR4" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="DS4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DT4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DU4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DV4" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="DW4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="DX4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="DY4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DZ4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="EA4" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="EB4" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="EC4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="ED4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="EE4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EF4" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="EG4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EH4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EI4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="EJ4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="EK4" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="EL4" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="EM4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="EN4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="EO4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EP4" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="EQ4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="ER4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="ES4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="ET4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EU4" s="1" t="s">
+      <c r="EW4" s="6">
+        <v>0</v>
+      </c>
+      <c r="EX4" s="6">
+        <v>0</v>
+      </c>
+      <c r="EY4" s="6">
+        <v>1</v>
+      </c>
+      <c r="EZ4" s="6">
+        <v>0</v>
+      </c>
+      <c r="FA4" s="6">
+        <v>0</v>
+      </c>
+      <c r="FB4" s="6">
+        <v>0</v>
+      </c>
+      <c r="FC4" s="6">
+        <v>1</v>
+      </c>
+      <c r="FD4" s="6">
+        <v>1</v>
+      </c>
+      <c r="FE4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="FF4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="FG4" s="6">
+        <v>0</v>
+      </c>
+      <c r="FH4" s="6">
+        <v>0</v>
+      </c>
+      <c r="FI4" s="6">
+        <v>1</v>
+      </c>
+      <c r="FJ4" s="6">
+        <v>0</v>
+      </c>
+      <c r="FK4" s="6">
+        <v>0</v>
+      </c>
+      <c r="FL4" s="6">
+        <v>0</v>
+      </c>
+      <c r="FM4" s="6">
+        <v>1</v>
+      </c>
+      <c r="FN4" s="6">
+        <v>1</v>
+      </c>
+      <c r="FO4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="FP4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="FQ4" s="6">
+        <v>1</v>
+      </c>
+      <c r="FR4" s="6">
+        <v>1</v>
+      </c>
+      <c r="FS4" s="6">
+        <v>0</v>
+      </c>
+      <c r="FT4" s="6">
+        <v>0</v>
+      </c>
+      <c r="FU4" s="6">
+        <v>0</v>
+      </c>
+      <c r="FV4" s="6">
+        <v>0</v>
+      </c>
+      <c r="FW4" s="6">
+        <v>1</v>
+      </c>
+      <c r="FX4" s="6">
+        <v>1</v>
+      </c>
+      <c r="FY4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="FZ4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="GA4" s="6">
+        <v>1</v>
+      </c>
+      <c r="GB4" s="6">
+        <v>1</v>
+      </c>
+      <c r="GC4" s="6">
+        <v>1</v>
+      </c>
+      <c r="GD4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="GE4" s="6">
+        <v>1</v>
+      </c>
+      <c r="GF4" s="6">
+        <v>1</v>
+      </c>
+      <c r="GG4" s="6">
+        <v>0</v>
+      </c>
+      <c r="GH4" s="6">
+        <v>0</v>
+      </c>
+      <c r="GI4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="GJ4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="GK4" s="6">
+        <v>1</v>
+      </c>
+      <c r="GL4" s="6">
+        <v>0</v>
+      </c>
+      <c r="GM4" s="6">
+        <v>1</v>
+      </c>
+      <c r="GN4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="GO4" s="6">
+        <v>1</v>
+      </c>
+      <c r="GP4" s="6">
+        <v>1</v>
+      </c>
+      <c r="GQ4" s="6">
+        <v>0</v>
+      </c>
+      <c r="GR4" s="6">
+        <v>1</v>
+      </c>
+      <c r="GS4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="GT4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="GU4" s="6">
+        <v>1</v>
+      </c>
+      <c r="GV4" s="6">
+        <v>1</v>
+      </c>
+      <c r="GW4" s="6">
+        <v>1</v>
+      </c>
+      <c r="GX4" s="6">
+        <v>1</v>
+      </c>
+      <c r="GY4" s="6">
+        <v>1</v>
+      </c>
+      <c r="GZ4" s="6">
+        <v>1</v>
+      </c>
+      <c r="HA4" s="6">
+        <v>0</v>
+      </c>
+      <c r="HB4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:220" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="EV4" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="EW4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="EX4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="EY4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EZ4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FA4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FB4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FC4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FD4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FE4" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="FF4" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="FG4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FH4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FI4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FJ4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FK4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FL4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FM4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FN4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FO4" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="FP4" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="FQ4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FR4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FS4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FT4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FU4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FV4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FW4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FX4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FY4" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="FZ4" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="GA4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GB4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GC4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GD4" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="GE4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GF4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GG4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="GH4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="GI4" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="GJ4" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="GK4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GL4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="GM4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GN4" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="GO4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GP4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GQ4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="GR4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GS4" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="GT4" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="GU4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GV4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GW4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GX4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GY4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GZ4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="HA4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="HB4" s="6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>245</v>
-      </c>
       <c r="B5" s="6">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>221</v>
@@ -3694,1262 +3720,1262 @@
         <v>222</v>
       </c>
       <c r="E5" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F5" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H5" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>223</v>
       </c>
       <c r="K5" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L5" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M5" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N5" s="6">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="O5" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P5" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="S5" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="6">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="U5" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="6">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="X5" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Y5" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Z5" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AA5" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AB5" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AC5" s="6">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AD5" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AE5" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AF5" s="6">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="AG5" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AH5" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AI5" s="7">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AJ5" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AK5" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AL5" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AM5" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AN5" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AO5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AP5" s="6">
+        <v>18</v>
+      </c>
+      <c r="AQ5" s="6">
+        <v>5</v>
+      </c>
+      <c r="AR5" s="6">
+        <v>3</v>
+      </c>
+      <c r="AS5" s="6">
+        <v>10</v>
+      </c>
+      <c r="AT5" s="6">
+        <v>15</v>
+      </c>
+      <c r="AU5" s="6">
+        <v>10</v>
+      </c>
+      <c r="AV5" s="6">
+        <v>15</v>
+      </c>
+      <c r="AW5" s="6">
+        <v>5</v>
+      </c>
+      <c r="AX5" s="6">
+        <v>2</v>
+      </c>
+      <c r="AY5" s="6">
+        <v>17</v>
+      </c>
+      <c r="AZ5" s="6">
+        <v>13</v>
+      </c>
+      <c r="BA5" s="6">
+        <v>6</v>
+      </c>
+      <c r="BB5" s="6">
+        <v>4</v>
+      </c>
+      <c r="BC5" s="6">
+        <v>1</v>
+      </c>
+      <c r="BD5" s="6">
+        <v>4</v>
+      </c>
+      <c r="BE5" s="6">
+        <v>3</v>
+      </c>
+      <c r="BF5" s="6">
+        <v>1</v>
+      </c>
+      <c r="BG5" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="AP5" s="6">
-        <v>18.0</v>
-      </c>
-      <c r="AQ5" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="AR5" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="AS5" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="AT5" s="6">
-        <v>15.0</v>
-      </c>
-      <c r="AU5" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="AV5" s="6">
-        <v>15.0</v>
-      </c>
-      <c r="AW5" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="AX5" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="AY5" s="6">
-        <v>17.0</v>
-      </c>
-      <c r="AZ5" s="6">
-        <v>13.0</v>
-      </c>
-      <c r="BA5" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="BB5" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="BC5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="BD5" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="BE5" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="BF5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="BG5" s="1" t="s">
+      <c r="BH5" s="6">
+        <v>16</v>
+      </c>
+      <c r="BI5" s="6">
+        <v>2</v>
+      </c>
+      <c r="BJ5" s="6">
+        <v>2</v>
+      </c>
+      <c r="BK5" s="6">
+        <v>8</v>
+      </c>
+      <c r="BL5" s="6">
+        <v>17</v>
+      </c>
+      <c r="BM5" s="6">
+        <v>12</v>
+      </c>
+      <c r="BN5" s="6">
+        <v>11</v>
+      </c>
+      <c r="BO5" s="6">
+        <v>2</v>
+      </c>
+      <c r="BP5" s="6">
+        <v>2</v>
+      </c>
+      <c r="BQ5" s="6">
+        <v>15</v>
+      </c>
+      <c r="BR5" s="6">
+        <v>12</v>
+      </c>
+      <c r="BS5" s="6">
+        <v>5</v>
+      </c>
+      <c r="BT5" s="6">
+        <v>6</v>
+      </c>
+      <c r="BU5" s="6">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="6">
+        <v>6</v>
+      </c>
+      <c r="BW5" s="6">
+        <v>1</v>
+      </c>
+      <c r="BX5" s="6">
+        <v>6</v>
+      </c>
+      <c r="BY5" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="BH5" s="6">
-        <v>16.0</v>
-      </c>
-      <c r="BI5" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="BJ5" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="BK5" s="6">
-        <v>8.0</v>
-      </c>
-      <c r="BL5" s="6">
-        <v>17.0</v>
-      </c>
-      <c r="BM5" s="6">
-        <v>12.0</v>
-      </c>
-      <c r="BN5" s="6">
-        <v>11.0</v>
-      </c>
-      <c r="BO5" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="BP5" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="BQ5" s="6">
-        <v>15.0</v>
-      </c>
-      <c r="BR5" s="6">
-        <v>12.0</v>
-      </c>
-      <c r="BS5" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="BT5" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="BU5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="BV5" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="BW5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="BX5" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="BY5" s="1" t="s">
+      <c r="BZ5" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="BZ5" s="1" t="s">
+      <c r="CA5" s="6">
+        <v>10</v>
+      </c>
+      <c r="CB5" s="6">
+        <v>2</v>
+      </c>
+      <c r="CC5" s="6">
+        <v>3</v>
+      </c>
+      <c r="CD5" s="6">
+        <v>13</v>
+      </c>
+      <c r="CE5" s="6">
+        <v>8</v>
+      </c>
+      <c r="CF5" s="6">
+        <v>3</v>
+      </c>
+      <c r="CG5" s="6">
+        <v>8</v>
+      </c>
+      <c r="CH5" s="6">
+        <v>2</v>
+      </c>
+      <c r="CI5" s="6">
+        <v>2</v>
+      </c>
+      <c r="CJ5" s="6">
+        <v>7</v>
+      </c>
+      <c r="CK5" s="6">
+        <v>8</v>
+      </c>
+      <c r="CL5" s="6">
+        <v>2</v>
+      </c>
+      <c r="CM5" s="6">
+        <v>3</v>
+      </c>
+      <c r="CN5" s="6">
+        <v>1</v>
+      </c>
+      <c r="CO5" s="6">
+        <v>0</v>
+      </c>
+      <c r="CP5" s="6">
+        <v>0</v>
+      </c>
+      <c r="CQ5" s="6">
+        <v>0</v>
+      </c>
+      <c r="CR5" s="6">
+        <v>0</v>
+      </c>
+      <c r="CS5" s="6">
+        <v>3</v>
+      </c>
+      <c r="CT5" s="6">
+        <v>1</v>
+      </c>
+      <c r="CU5" s="6">
+        <v>5</v>
+      </c>
+      <c r="CV5" s="6">
+        <v>4</v>
+      </c>
+      <c r="CW5" s="6">
+        <v>1</v>
+      </c>
+      <c r="CX5" s="6">
+        <v>0</v>
+      </c>
+      <c r="CY5" s="6">
+        <v>7</v>
+      </c>
+      <c r="CZ5" s="6">
+        <v>7</v>
+      </c>
+      <c r="DA5" s="6">
+        <v>0</v>
+      </c>
+      <c r="DB5" s="6">
+        <v>7</v>
+      </c>
+      <c r="DC5" s="6">
+        <v>1</v>
+      </c>
+      <c r="DD5" s="6">
+        <v>1</v>
+      </c>
+      <c r="DE5" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="CA5" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="CB5" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="CC5" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="CD5" s="6">
-        <v>13.0</v>
-      </c>
-      <c r="CE5" s="6">
-        <v>8.0</v>
-      </c>
-      <c r="CF5" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="CG5" s="6">
-        <v>8.0</v>
-      </c>
-      <c r="CH5" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="CI5" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="CJ5" s="6">
-        <v>7.0</v>
-      </c>
-      <c r="CK5" s="6">
-        <v>8.0</v>
-      </c>
-      <c r="CL5" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="CM5" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="CN5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="CO5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="CP5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="CQ5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="CR5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="CS5" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="CT5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="CU5" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="CV5" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="CW5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="CX5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="CY5" s="6">
-        <v>7.0</v>
-      </c>
-      <c r="CZ5" s="6">
-        <v>7.0</v>
-      </c>
-      <c r="DA5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="DB5" s="6">
-        <v>7.0</v>
-      </c>
-      <c r="DC5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DD5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DE5" s="1" t="s">
+      <c r="DF5" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="DF5" s="1" t="s">
+      <c r="DG5" s="6">
+        <v>1</v>
+      </c>
+      <c r="DH5" s="6">
+        <v>1</v>
+      </c>
+      <c r="DI5" s="6">
+        <v>1</v>
+      </c>
+      <c r="DJ5" s="6">
+        <v>1</v>
+      </c>
+      <c r="DK5" s="6">
+        <v>1</v>
+      </c>
+      <c r="DL5" s="6">
+        <v>1</v>
+      </c>
+      <c r="DM5" s="6">
+        <v>1</v>
+      </c>
+      <c r="DN5" s="6">
+        <v>1</v>
+      </c>
+      <c r="DO5" s="6">
+        <v>1</v>
+      </c>
+      <c r="DP5" s="6">
+        <v>1</v>
+      </c>
+      <c r="DQ5" s="6">
+        <v>1</v>
+      </c>
+      <c r="DR5" s="6">
+        <v>1</v>
+      </c>
+      <c r="DS5" s="6">
+        <v>1</v>
+      </c>
+      <c r="DT5" s="6">
+        <v>1</v>
+      </c>
+      <c r="DU5" s="6">
+        <v>1</v>
+      </c>
+      <c r="DV5" s="6">
+        <v>1</v>
+      </c>
+      <c r="DW5" s="6">
+        <v>1</v>
+      </c>
+      <c r="DX5" s="6">
+        <v>1</v>
+      </c>
+      <c r="DY5" s="6">
+        <v>1</v>
+      </c>
+      <c r="DZ5" s="6">
+        <v>1</v>
+      </c>
+      <c r="EA5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="EB5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="EC5" s="6">
+        <v>1</v>
+      </c>
+      <c r="ED5" s="6">
+        <v>1</v>
+      </c>
+      <c r="EE5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="EF5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="EG5" s="6">
+        <v>1</v>
+      </c>
+      <c r="EH5" s="6">
+        <v>1</v>
+      </c>
+      <c r="EI5" s="6">
+        <v>0</v>
+      </c>
+      <c r="EJ5" s="6">
+        <v>1</v>
+      </c>
+      <c r="EK5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="EL5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="EM5" s="6">
+        <v>1</v>
+      </c>
+      <c r="EN5" s="6">
+        <v>1</v>
+      </c>
+      <c r="EO5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="EP5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="EQ5" s="6">
+        <v>1</v>
+      </c>
+      <c r="ER5" s="6">
+        <v>1</v>
+      </c>
+      <c r="ES5" s="6">
+        <v>0</v>
+      </c>
+      <c r="ET5" s="6">
+        <v>0</v>
+      </c>
+      <c r="EU5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="EV5" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="EW5" s="6">
+        <v>1</v>
+      </c>
+      <c r="EX5" s="6">
+        <v>1</v>
+      </c>
+      <c r="EY5" s="6">
+        <v>1</v>
+      </c>
+      <c r="EZ5" s="6">
+        <v>0</v>
+      </c>
+      <c r="FA5" s="6">
+        <v>0</v>
+      </c>
+      <c r="FB5" s="6">
+        <v>0</v>
+      </c>
+      <c r="FC5" s="6">
+        <v>1</v>
+      </c>
+      <c r="FD5" s="6">
+        <v>1</v>
+      </c>
+      <c r="FE5" s="6">
+        <v>1</v>
+      </c>
+      <c r="FF5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="FG5" s="6">
+        <v>1</v>
+      </c>
+      <c r="FH5" s="6">
+        <v>1</v>
+      </c>
+      <c r="FI5" s="6">
+        <v>1</v>
+      </c>
+      <c r="FJ5" s="6">
+        <v>0</v>
+      </c>
+      <c r="FK5" s="6">
+        <v>1</v>
+      </c>
+      <c r="FL5" s="6">
+        <v>1</v>
+      </c>
+      <c r="FM5" s="6">
+        <v>1</v>
+      </c>
+      <c r="FN5" s="6">
+        <v>0</v>
+      </c>
+      <c r="FO5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="FP5" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="FQ5" s="6">
+        <v>0</v>
+      </c>
+      <c r="FR5" s="6">
+        <v>0</v>
+      </c>
+      <c r="FS5" s="6">
+        <v>1</v>
+      </c>
+      <c r="FT5" s="6">
+        <v>0</v>
+      </c>
+      <c r="FU5" s="6">
+        <v>1</v>
+      </c>
+      <c r="FV5" s="6">
+        <v>1</v>
+      </c>
+      <c r="FW5" s="6">
+        <v>0</v>
+      </c>
+      <c r="FX5" s="6">
+        <v>0</v>
+      </c>
+      <c r="FY5" s="6">
+        <v>1</v>
+      </c>
+      <c r="FZ5" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="GA5" s="6">
+        <v>1</v>
+      </c>
+      <c r="GB5" s="6">
+        <v>1</v>
+      </c>
+      <c r="GC5" s="6">
+        <v>1</v>
+      </c>
+      <c r="GD5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="GE5" s="6">
+        <v>0</v>
+      </c>
+      <c r="GF5" s="6">
+        <v>1</v>
+      </c>
+      <c r="GG5" s="6">
+        <v>0</v>
+      </c>
+      <c r="GH5" s="6">
+        <v>0</v>
+      </c>
+      <c r="GI5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="GJ5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="GK5" s="6">
+        <v>1</v>
+      </c>
+      <c r="GL5" s="6">
+        <v>0</v>
+      </c>
+      <c r="GM5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="GN5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="GO5" s="6">
+        <v>1</v>
+      </c>
+      <c r="GP5" s="6">
+        <v>1</v>
+      </c>
+      <c r="GQ5" s="6">
+        <v>1</v>
+      </c>
+      <c r="GR5" s="6">
+        <v>1</v>
+      </c>
+      <c r="GS5" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="GT5" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="GU5" s="6">
+        <v>1</v>
+      </c>
+      <c r="GV5" s="6">
+        <v>0</v>
+      </c>
+      <c r="GW5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="GX5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="GY5" s="6">
+        <v>1</v>
+      </c>
+      <c r="GZ5" s="6">
+        <v>1</v>
+      </c>
+      <c r="HA5" s="6">
+        <v>1</v>
+      </c>
+      <c r="HB5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:220" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="DG5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DH5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DI5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DJ5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DK5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DL5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DM5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DN5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DO5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DP5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DQ5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DR5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DS5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DT5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DU5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DV5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DW5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DX5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DY5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DZ5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EA5" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="EB5" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="EC5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="ED5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EE5" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="EF5" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="EG5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EH5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EI5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="EJ5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EK5" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="EL5" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="EM5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EN5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EO5" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="EP5" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="EQ5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="ER5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="ES5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="ET5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="EU5" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="EV5" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="EW5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EX5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EY5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EZ5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FA5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FB5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FC5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FD5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FE5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FF5" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="FG5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FH5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FI5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FJ5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FK5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FL5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FM5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FN5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FO5" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="FP5" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="FQ5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FR5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FS5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FT5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FU5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FV5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FW5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FX5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FY5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FZ5" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="GA5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GB5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GC5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GD5" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="GE5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="GF5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GG5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="GH5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="GI5" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="GJ5" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="GK5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GL5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="GM5" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="GN5" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="GO5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GP5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GQ5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GR5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GS5" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="GT5" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="GU5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GV5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="GW5" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="GX5" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="GY5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GZ5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="HA5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="HB5" s="6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="B6" s="6">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>221</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G6" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H6" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I6" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>223</v>
       </c>
       <c r="K6" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="O6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="6">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="U6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W6" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AA6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AF6" s="6">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AG6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AH6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AI6" s="7">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AJ6" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AK6" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AL6" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AM6" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AN6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AO6" s="1" t="s">
         <v>224</v>
       </c>
       <c r="AP6" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AQ6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AR6" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AS6" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AT6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AV6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AW6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="6">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="AZ6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BA6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BB6" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="BC6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BD6" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="BE6" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="BF6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BG6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BH6" s="6">
+        <v>8</v>
+      </c>
+      <c r="BI6" s="6">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="6">
+        <v>6</v>
+      </c>
+      <c r="BK6" s="6">
+        <v>14</v>
+      </c>
+      <c r="BL6" s="6">
+        <v>6</v>
+      </c>
+      <c r="BM6" s="6">
+        <v>5</v>
+      </c>
+      <c r="BN6" s="6">
+        <v>2</v>
+      </c>
+      <c r="BO6" s="6">
+        <v>1</v>
+      </c>
+      <c r="BP6" s="6">
+        <v>1</v>
+      </c>
+      <c r="BQ6" s="6">
+        <v>15</v>
+      </c>
+      <c r="BR6" s="6">
+        <v>1</v>
+      </c>
+      <c r="BS6" s="6">
+        <v>1</v>
+      </c>
+      <c r="BT6" s="6">
+        <v>3</v>
+      </c>
+      <c r="BU6" s="6">
+        <v>3</v>
+      </c>
+      <c r="BV6" s="6">
+        <v>5</v>
+      </c>
+      <c r="BW6" s="6">
+        <v>4</v>
+      </c>
+      <c r="BX6" s="6">
+        <v>4</v>
+      </c>
+      <c r="BY6" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="BH6" s="6">
-        <v>8.0</v>
-      </c>
-      <c r="BI6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="BJ6" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="BK6" s="6">
-        <v>14.0</v>
-      </c>
-      <c r="BL6" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="BM6" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="BN6" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="BO6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="BP6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="BQ6" s="6">
-        <v>15.0</v>
-      </c>
-      <c r="BR6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="BS6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="BT6" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="BU6" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="BV6" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="BW6" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="BX6" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="BY6" s="1" t="s">
+      <c r="BZ6" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="BZ6" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="CA6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CB6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CC6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CD6" s="6">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="CE6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CF6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CG6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CH6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CI6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CJ6" s="6">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="CK6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CL6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CM6" s="7">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="CN6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CO6" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="CP6" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="CQ6" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="CR6" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="CS6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CT6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CU6" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="CV6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CW6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CX6" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="CY6" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="CZ6" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="DA6" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="DB6" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="DC6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="DD6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="DE6" s="1" t="s">
         <v>224</v>
       </c>
       <c r="DF6" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="DG6" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="DH6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="DI6" s="6">
+        <v>1</v>
+      </c>
+      <c r="DJ6" s="6">
+        <v>0</v>
+      </c>
+      <c r="DK6" s="6">
+        <v>1</v>
+      </c>
+      <c r="DL6" s="6">
+        <v>1</v>
+      </c>
+      <c r="DM6" s="6">
+        <v>1</v>
+      </c>
+      <c r="DN6" s="6">
+        <v>0</v>
+      </c>
+      <c r="DO6" s="6">
+        <v>1</v>
+      </c>
+      <c r="DP6" s="6">
+        <v>1</v>
+      </c>
+      <c r="DQ6" s="6">
+        <v>1</v>
+      </c>
+      <c r="DR6" s="6">
+        <v>1</v>
+      </c>
+      <c r="DS6" s="6">
+        <v>1</v>
+      </c>
+      <c r="DT6" s="6">
+        <v>1</v>
+      </c>
+      <c r="DU6" s="6">
+        <v>1</v>
+      </c>
+      <c r="DV6" s="6">
+        <v>1</v>
+      </c>
+      <c r="DW6" s="6">
+        <v>1</v>
+      </c>
+      <c r="DX6" s="6">
+        <v>1</v>
+      </c>
+      <c r="DY6" s="6">
+        <v>1</v>
+      </c>
+      <c r="DZ6" s="6">
+        <v>1</v>
+      </c>
+      <c r="EA6" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="EB6" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="EC6" s="6">
+        <v>0</v>
+      </c>
+      <c r="ED6" s="6">
+        <v>0</v>
+      </c>
+      <c r="EE6" s="6">
+        <v>1</v>
+      </c>
+      <c r="EF6" s="6">
+        <v>1</v>
+      </c>
+      <c r="EG6" s="6">
+        <v>1</v>
+      </c>
+      <c r="EH6" s="6">
+        <v>1</v>
+      </c>
+      <c r="EI6" s="6">
+        <v>1</v>
+      </c>
+      <c r="EJ6" s="6">
+        <v>1</v>
+      </c>
+      <c r="EK6" s="6">
+        <v>1</v>
+      </c>
+      <c r="EL6" s="6">
+        <v>1</v>
+      </c>
+      <c r="EM6" s="6">
+        <v>1</v>
+      </c>
+      <c r="EN6" s="6">
+        <v>1</v>
+      </c>
+      <c r="EO6" s="6">
+        <v>1</v>
+      </c>
+      <c r="EP6" s="6">
+        <v>1</v>
+      </c>
+      <c r="EQ6" s="6">
+        <v>1</v>
+      </c>
+      <c r="ER6" s="6">
+        <v>1</v>
+      </c>
+      <c r="ES6" s="6">
+        <v>1</v>
+      </c>
+      <c r="ET6" s="6">
+        <v>1</v>
+      </c>
+      <c r="EU6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="EV6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="EW6" s="6">
+        <v>1</v>
+      </c>
+      <c r="EX6" s="6">
+        <v>1</v>
+      </c>
+      <c r="EY6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="EZ6" s="6">
+        <v>0</v>
+      </c>
+      <c r="FA6" s="6">
+        <v>1</v>
+      </c>
+      <c r="FB6" s="6">
+        <v>1</v>
+      </c>
+      <c r="FC6" s="6">
+        <v>1</v>
+      </c>
+      <c r="FD6" s="6">
+        <v>1</v>
+      </c>
+      <c r="FE6" s="6">
+        <v>1</v>
+      </c>
+      <c r="FF6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="FG6" s="6">
+        <v>1</v>
+      </c>
+      <c r="FH6" s="6">
+        <v>1</v>
+      </c>
+      <c r="FI6" s="6">
+        <v>1</v>
+      </c>
+      <c r="FJ6" s="6">
+        <v>0</v>
+      </c>
+      <c r="FK6" s="6">
+        <v>1</v>
+      </c>
+      <c r="FL6" s="6">
+        <v>1</v>
+      </c>
+      <c r="FM6" s="6">
+        <v>1</v>
+      </c>
+      <c r="FN6" s="6">
+        <v>1</v>
+      </c>
+      <c r="FO6" s="6">
+        <v>1</v>
+      </c>
+      <c r="FP6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="FQ6" s="6">
+        <v>0</v>
+      </c>
+      <c r="FR6" s="6">
+        <v>0</v>
+      </c>
+      <c r="FS6" s="6">
+        <v>1</v>
+      </c>
+      <c r="FT6" s="6">
+        <v>0</v>
+      </c>
+      <c r="FU6" s="6">
+        <v>1</v>
+      </c>
+      <c r="FV6" s="6">
+        <v>1</v>
+      </c>
+      <c r="FW6" s="6">
+        <v>0</v>
+      </c>
+      <c r="FX6" s="6">
+        <v>0</v>
+      </c>
+      <c r="FY6" s="6">
+        <v>1</v>
+      </c>
+      <c r="FZ6" s="6">
+        <v>1</v>
+      </c>
+      <c r="GA6" s="6">
+        <v>1</v>
+      </c>
+      <c r="GB6" s="6">
+        <v>1</v>
+      </c>
+      <c r="GC6" s="6">
+        <v>1</v>
+      </c>
+      <c r="GD6" s="6">
+        <v>1</v>
+      </c>
+      <c r="GE6" s="6">
+        <v>1</v>
+      </c>
+      <c r="GF6" s="6">
+        <v>1</v>
+      </c>
+      <c r="GG6" s="6">
+        <v>0</v>
+      </c>
+      <c r="GH6" s="6">
+        <v>1</v>
+      </c>
+      <c r="GI6" s="6">
+        <v>1</v>
+      </c>
+      <c r="GJ6" s="6">
+        <v>1</v>
+      </c>
+      <c r="GK6" s="6">
+        <v>1</v>
+      </c>
+      <c r="GL6" s="6">
+        <v>0</v>
+      </c>
+      <c r="GM6" s="6">
+        <v>1</v>
+      </c>
+      <c r="GN6" s="6">
+        <v>1</v>
+      </c>
+      <c r="GO6" s="6">
+        <v>1</v>
+      </c>
+      <c r="GP6" s="6">
+        <v>1</v>
+      </c>
+      <c r="GQ6" s="6">
+        <v>1</v>
+      </c>
+      <c r="GR6" s="6">
+        <v>1</v>
+      </c>
+      <c r="GS6" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="GT6" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="GU6" s="6">
+        <v>1</v>
+      </c>
+      <c r="GV6" s="6">
+        <v>1</v>
+      </c>
+      <c r="GW6" s="6">
+        <v>1</v>
+      </c>
+      <c r="GX6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="GY6" s="6">
+        <v>1</v>
+      </c>
+      <c r="GZ6" s="6">
+        <v>1</v>
+      </c>
+      <c r="HA6" s="6">
+        <v>1</v>
+      </c>
+      <c r="HB6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:220" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="DG6" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="DH6" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="DI6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DJ6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="DK6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DL6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DM6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DN6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="DO6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DP6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DQ6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DR6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DS6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DT6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DU6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DV6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DW6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DX6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DY6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DZ6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EA6" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="EB6" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="EC6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="ED6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="EE6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EF6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EG6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EH6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EI6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EJ6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EK6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EL6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EM6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EN6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EO6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EP6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EQ6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="ER6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="ES6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="ET6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EU6" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="EV6" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="EW6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EX6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EY6" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="EZ6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FA6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FB6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FC6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FD6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FE6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FF6" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="FG6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FH6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FI6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FJ6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FK6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FL6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FM6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FN6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FO6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FP6" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="FQ6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FR6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FS6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FT6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FU6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FV6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FW6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FX6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FY6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FZ6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GA6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GB6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GC6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GD6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GE6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GF6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GG6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="GH6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GI6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GJ6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GK6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GL6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="GM6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GN6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GO6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GP6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GQ6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GR6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GS6" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="GT6" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="GU6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GV6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GW6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GX6" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="GY6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="GZ6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="HA6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="HB6" s="6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>257</v>
-      </c>
       <c r="B7" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>221</v>
@@ -4958,1889 +4984,1931 @@
         <v>222</v>
       </c>
       <c r="E7" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F7" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>223</v>
       </c>
       <c r="K7" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="L7" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="M7" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N7" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="O7" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R7" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S7" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="T7" s="6">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="U7" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="V7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="6">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="X7" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="Y7" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="Z7" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AA7" s="6">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="AB7" s="6">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AC7" s="6">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AD7" s="6">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AE7" s="6">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AF7" s="6">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AG7" s="6">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AH7" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AI7" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AJ7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AK7" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AL7" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AM7" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AN7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AO7" s="1" t="s">
         <v>224</v>
       </c>
       <c r="AP7" s="6">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="AQ7" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AR7" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AS7" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AT7" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AU7" s="6">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AV7" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AW7" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AX7" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AY7" s="6">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AZ7" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="BA7" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BB7" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BC7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BD7" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="BE7" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="BF7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BG7" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BH7" s="6">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="BI7" s="6">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="BJ7" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="BK7" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="BL7" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="BM7" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BN7" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="BO7" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="BP7" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="BQ7" s="6">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="BR7" s="6">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="BS7" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BT7" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BU7" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BV7" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BW7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BX7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BY7" s="1" t="s">
         <v>224</v>
       </c>
       <c r="BZ7" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="CA7" s="6">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="CB7" s="6">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="CC7" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="CD7" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="CE7" s="6">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="CF7" s="6">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="CG7" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="CH7" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="CI7" s="6">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="CJ7" s="6">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="CK7" s="6">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="CL7" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="CM7" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="CN7" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="CO7" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="CP7" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="CQ7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CR7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CS7" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="CT7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CU7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CV7" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="CW7" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="CX7" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="CY7" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="CZ7" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="DA7" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="DB7" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="DC7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="DD7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="DE7" s="1" t="s">
         <v>224</v>
       </c>
       <c r="DF7" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="DG7" s="6">
+        <v>1</v>
+      </c>
+      <c r="DH7" s="6">
+        <v>1</v>
+      </c>
+      <c r="DI7" s="6">
+        <v>1</v>
+      </c>
+      <c r="DJ7" s="6">
+        <v>1</v>
+      </c>
+      <c r="DK7" s="6">
+        <v>1</v>
+      </c>
+      <c r="DL7" s="6">
+        <v>1</v>
+      </c>
+      <c r="DM7" s="6">
+        <v>1</v>
+      </c>
+      <c r="DN7" s="6">
+        <v>1</v>
+      </c>
+      <c r="DO7" s="6">
+        <v>1</v>
+      </c>
+      <c r="DP7" s="6">
+        <v>1</v>
+      </c>
+      <c r="DQ7" s="6">
+        <v>1</v>
+      </c>
+      <c r="DR7" s="6">
+        <v>1</v>
+      </c>
+      <c r="DS7" s="6">
+        <v>1</v>
+      </c>
+      <c r="DT7" s="6">
+        <v>1</v>
+      </c>
+      <c r="DU7" s="6">
+        <v>1</v>
+      </c>
+      <c r="DV7" s="6">
+        <v>1</v>
+      </c>
+      <c r="DW7" s="6">
+        <v>1</v>
+      </c>
+      <c r="DX7" s="6">
+        <v>1</v>
+      </c>
+      <c r="DY7" s="6">
+        <v>1</v>
+      </c>
+      <c r="DZ7" s="6">
+        <v>1</v>
+      </c>
+      <c r="EA7" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="EB7" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="DG7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DH7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DI7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DJ7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DK7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DL7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DM7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DN7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DO7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DP7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DQ7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DR7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DS7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DT7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DU7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DV7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DW7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DX7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DY7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DZ7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EA7" s="1" t="s">
+      <c r="EC7" s="6">
+        <v>1</v>
+      </c>
+      <c r="ED7" s="6">
+        <v>1</v>
+      </c>
+      <c r="EE7" s="6">
+        <v>1</v>
+      </c>
+      <c r="EF7" s="6">
+        <v>1</v>
+      </c>
+      <c r="EG7" s="6">
+        <v>1</v>
+      </c>
+      <c r="EH7" s="6">
+        <v>1</v>
+      </c>
+      <c r="EI7" s="6">
+        <v>0</v>
+      </c>
+      <c r="EJ7" s="6">
+        <v>0</v>
+      </c>
+      <c r="EK7" s="6">
+        <v>1</v>
+      </c>
+      <c r="EL7" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="EM7" s="6">
+        <v>1</v>
+      </c>
+      <c r="EN7" s="6">
+        <v>1</v>
+      </c>
+      <c r="EO7" s="6">
+        <v>1</v>
+      </c>
+      <c r="EP7" s="6">
+        <v>1</v>
+      </c>
+      <c r="EQ7" s="6">
+        <v>1</v>
+      </c>
+      <c r="ER7" s="6">
+        <v>1</v>
+      </c>
+      <c r="ES7" s="6">
+        <v>0</v>
+      </c>
+      <c r="ET7" s="6">
+        <v>0</v>
+      </c>
+      <c r="EU7" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="EB7" s="1" t="s">
+      <c r="EV7" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="EC7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="ED7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EE7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EF7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EG7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EH7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EI7" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="EJ7" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="EK7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EL7" s="1" t="s">
+      <c r="EW7" s="6">
+        <v>1</v>
+      </c>
+      <c r="EX7" s="6">
+        <v>1</v>
+      </c>
+      <c r="EY7" s="6">
+        <v>1</v>
+      </c>
+      <c r="EZ7" s="6">
+        <v>0</v>
+      </c>
+      <c r="FA7" s="6">
+        <v>1</v>
+      </c>
+      <c r="FB7" s="6">
+        <v>1</v>
+      </c>
+      <c r="FC7" s="6">
+        <v>1</v>
+      </c>
+      <c r="FD7" s="6">
+        <v>1</v>
+      </c>
+      <c r="FE7" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="FF7" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="FG7" s="6">
+        <v>1</v>
+      </c>
+      <c r="FH7" s="6">
+        <v>1</v>
+      </c>
+      <c r="FI7" s="6">
+        <v>1</v>
+      </c>
+      <c r="FJ7" s="6">
+        <v>1</v>
+      </c>
+      <c r="FK7" s="6">
+        <v>1</v>
+      </c>
+      <c r="FL7" s="6">
+        <v>1</v>
+      </c>
+      <c r="FM7" s="6">
+        <v>1</v>
+      </c>
+      <c r="FN7" s="6">
+        <v>1</v>
+      </c>
+      <c r="FO7" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="EM7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EN7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EO7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EP7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EQ7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="ER7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="ES7" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="ET7" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="EU7" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="EV7" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="EW7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EX7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EY7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EZ7" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FA7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FB7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FC7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FD7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FE7" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="FF7" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="FG7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FH7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FI7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FJ7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FK7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FL7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FM7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FN7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FO7" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="FP7" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="FQ7" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="FR7" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="FS7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="FT7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="FU7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="FV7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="FW7" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="FX7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="FY7" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="FZ7" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="GA7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GB7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GC7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GD7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GE7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GF7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GG7" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="GH7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GI7" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="GJ7" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="GK7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GL7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GM7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GN7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GO7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GP7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GQ7" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="GR7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GS7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GT7" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="GU7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GV7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GW7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GX7" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="GY7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GZ7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="HA7" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="HB7" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:220" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B8" s="6">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>221</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E8" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F8" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>223</v>
       </c>
       <c r="K8" s="6">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L8" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M8" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="N8" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="O8" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="P8" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Q8" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="R8" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S8" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="T8" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="U8" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="V8" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W8" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="X8" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Y8" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Z8" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AA8" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AB8" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AC8" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AD8" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AE8" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AF8" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AG8" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AH8" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AI8" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AJ8" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AK8" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AL8" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AM8" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AN8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AO8" s="1" t="s">
         <v>224</v>
       </c>
       <c r="AP8" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AQ8" s="6">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AR8" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AS8" s="6">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AT8" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AU8" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AV8" s="6">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AW8" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AX8" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AY8" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AZ8" s="6">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="BA8" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="BB8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BC8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BD8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BE8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BF8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BG8" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BH8" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="BI8" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="BJ8" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="BK8" s="6">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="BL8" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="BM8" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="BN8" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="BO8" s="6">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="BP8" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="BQ8" s="6">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="BR8" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="BS8" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="BT8" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="BU8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BV8" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="BW8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BX8" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="BY8" s="1" t="s">
         <v>224</v>
       </c>
       <c r="BZ8" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="CA8" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="CB8" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="CC8" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="CD8" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="CE8" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="CF8" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="CG8" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="CH8" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="CI8" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="CJ8" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="CK8" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="CL8" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="CM8" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CN8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CO8" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="CP8" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="CQ8" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="CR8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CS8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CT8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CU8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CV8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CW8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CX8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CY8" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="CZ8" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="DA8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="DB8" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="DC8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="DD8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="DE8" s="1" t="s">
         <v>224</v>
       </c>
       <c r="DF8" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="DG8" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="DH8" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="DI8" s="6">
+        <v>1</v>
+      </c>
+      <c r="DJ8" s="6">
+        <v>0</v>
+      </c>
+      <c r="DK8" s="6">
+        <v>1</v>
+      </c>
+      <c r="DL8" s="6">
+        <v>1</v>
+      </c>
+      <c r="DM8" s="6">
+        <v>1</v>
+      </c>
+      <c r="DN8" s="6">
+        <v>1</v>
+      </c>
+      <c r="DO8" s="6">
+        <v>1</v>
+      </c>
+      <c r="DP8" s="6">
+        <v>0</v>
+      </c>
+      <c r="DQ8" s="6">
+        <v>1</v>
+      </c>
+      <c r="DR8" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="DG8" s="1" t="s">
+      <c r="DS8" s="6">
+        <v>1</v>
+      </c>
+      <c r="DT8" s="6">
+        <v>1</v>
+      </c>
+      <c r="DU8" s="6">
+        <v>1</v>
+      </c>
+      <c r="DV8" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="DW8" s="6">
+        <v>1</v>
+      </c>
+      <c r="DX8" s="6">
+        <v>1</v>
+      </c>
+      <c r="DY8" s="6">
+        <v>1</v>
+      </c>
+      <c r="DZ8" s="6">
+        <v>1</v>
+      </c>
+      <c r="EA8" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="EB8" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="EC8" s="6">
+        <v>1</v>
+      </c>
+      <c r="ED8" s="6">
+        <v>1</v>
+      </c>
+      <c r="EE8" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="EF8" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="EG8" s="6">
+        <v>1</v>
+      </c>
+      <c r="EH8" s="6">
+        <v>1</v>
+      </c>
+      <c r="EI8" s="6">
+        <v>0</v>
+      </c>
+      <c r="EJ8" s="6">
+        <v>0</v>
+      </c>
+      <c r="EK8" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="EL8" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="EM8" s="6">
+        <v>1</v>
+      </c>
+      <c r="EN8" s="6">
+        <v>1</v>
+      </c>
+      <c r="EO8" s="6">
+        <v>1</v>
+      </c>
+      <c r="EP8" s="6">
+        <v>0</v>
+      </c>
+      <c r="EQ8" s="6">
+        <v>1</v>
+      </c>
+      <c r="ER8" s="6">
+        <v>1</v>
+      </c>
+      <c r="ES8" s="6">
+        <v>0</v>
+      </c>
+      <c r="ET8" s="6">
+        <v>0</v>
+      </c>
+      <c r="EU8" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="DH8" s="1" t="s">
+      <c r="EV8" s="6">
+        <v>0</v>
+      </c>
+      <c r="EW8" s="6">
+        <v>1</v>
+      </c>
+      <c r="EX8" s="6">
+        <v>1</v>
+      </c>
+      <c r="EY8" s="6">
+        <v>1</v>
+      </c>
+      <c r="EZ8" s="6">
+        <v>0</v>
+      </c>
+      <c r="FA8" s="6">
+        <v>1</v>
+      </c>
+      <c r="FB8" s="6">
+        <v>1</v>
+      </c>
+      <c r="FC8" s="6">
+        <v>1</v>
+      </c>
+      <c r="FD8" s="6">
+        <v>1</v>
+      </c>
+      <c r="FE8" s="6">
+        <v>1</v>
+      </c>
+      <c r="FF8" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="FG8" s="6">
+        <v>1</v>
+      </c>
+      <c r="FH8" s="6">
+        <v>1</v>
+      </c>
+      <c r="FI8" s="6">
+        <v>1</v>
+      </c>
+      <c r="FJ8" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="FK8" s="6">
+        <v>1</v>
+      </c>
+      <c r="FL8" s="6">
+        <v>1</v>
+      </c>
+      <c r="FM8" s="6">
+        <v>1</v>
+      </c>
+      <c r="FN8" s="6">
+        <v>1</v>
+      </c>
+      <c r="FO8" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="DI8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DJ8" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="DK8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DL8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DM8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DN8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DO8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DP8" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="DQ8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DR8" s="1" t="s">
+      <c r="FP8" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="DS8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DT8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DU8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DV8" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="DW8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DX8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DY8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DZ8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EA8" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="EB8" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="EC8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="ED8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EE8" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="EF8" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="EG8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EH8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EI8" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="EJ8" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="EK8" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="EL8" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="EM8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EN8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EO8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EP8" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="EQ8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="ER8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="ES8" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="ET8" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="EU8" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="EV8" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="EW8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EX8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EY8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EZ8" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FA8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FB8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FC8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FD8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FE8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FF8" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="FG8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FH8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FI8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FJ8" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="FK8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FL8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FM8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FN8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FO8" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="FP8" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="FQ8" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="FR8" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="FS8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="FT8" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="FU8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="FV8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="FW8" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="FX8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="FY8" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="FZ8" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="GA8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GB8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GC8" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="GD8" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="GE8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GF8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GG8" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="GH8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GI8" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="GJ8" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="GK8" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="GL8" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="GM8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GN8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GO8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GP8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GQ8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GR8" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="GS8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GT8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GU8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GV8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GW8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GX8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GY8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GZ8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="HA8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="HB8" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:220" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" s="6">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="B9" s="6">
-        <v>31.0</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>222</v>
       </c>
       <c r="E9" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F9" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G9" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H9" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I9" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>223</v>
       </c>
       <c r="K9" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L9" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M9" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N9" s="6">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="O9" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P9" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="R9" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="S9" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="T9" s="6">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="U9" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="V9" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="W9" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="X9" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Y9" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Z9" s="6">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AA9" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AB9" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AC9" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AD9" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AE9" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AF9" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AG9" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AH9" s="6">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AI9" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AJ9" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AK9" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AL9" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AM9" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AN9" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AO9" s="1" t="s">
         <v>224</v>
       </c>
       <c r="AP9" s="6">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AQ9" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AR9" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AS9" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AT9" s="6">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AU9" s="6">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AV9" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AW9" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AX9" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AY9" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AZ9" s="6">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="BA9" s="6">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="BB9" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="BC9" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BD9" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="BE9" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BF9" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BG9" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="BH9" s="6">
+        <v>10</v>
+      </c>
+      <c r="BI9" s="6">
+        <v>4</v>
+      </c>
+      <c r="BJ9" s="6">
+        <v>4</v>
+      </c>
+      <c r="BK9" s="6">
+        <v>4</v>
+      </c>
+      <c r="BL9" s="6">
+        <v>10</v>
+      </c>
+      <c r="BM9" s="6">
+        <v>16</v>
+      </c>
+      <c r="BN9" s="6">
+        <v>6</v>
+      </c>
+      <c r="BO9" s="6">
+        <v>4</v>
+      </c>
+      <c r="BP9" s="6">
+        <v>4</v>
+      </c>
+      <c r="BQ9" s="6">
+        <v>4</v>
+      </c>
+      <c r="BR9" s="6">
+        <v>12</v>
+      </c>
+      <c r="BS9" s="6">
+        <v>16</v>
+      </c>
+      <c r="BT9" s="6">
+        <v>6</v>
+      </c>
+      <c r="BU9" s="6">
+        <v>0</v>
+      </c>
+      <c r="BV9" s="6">
+        <v>7</v>
+      </c>
+      <c r="BW9" s="6">
+        <v>1</v>
+      </c>
+      <c r="BX9" s="6">
+        <v>1</v>
+      </c>
+      <c r="BY9" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="BH9" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="BI9" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="BJ9" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="BK9" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="BL9" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="BM9" s="6">
-        <v>16.0</v>
-      </c>
-      <c r="BN9" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="BO9" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="BP9" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="BQ9" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="BR9" s="6">
-        <v>12.0</v>
-      </c>
-      <c r="BS9" s="6">
-        <v>16.0</v>
-      </c>
-      <c r="BT9" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="BU9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="BV9" s="6">
-        <v>7.0</v>
-      </c>
-      <c r="BW9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="BX9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="BY9" s="1" t="s">
+      <c r="BZ9" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="BZ9" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="CA9" s="6">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="CB9" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="CC9" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="CD9" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="CE9" s="6">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="CF9" s="6">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="CG9" s="6">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="CH9" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="CI9" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="CJ9" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="CK9" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="CL9" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="CM9" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="CN9" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CO9" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="CP9" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="CQ9" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="CR9" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CS9" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="CT9" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CU9" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="CV9" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="CW9" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CX9" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="CY9" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="CZ9" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="DA9" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="DB9" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="DC9" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="DD9" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="DE9" s="1" t="s">
         <v>224</v>
       </c>
       <c r="DF9" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="DG9" s="6">
+        <v>1</v>
+      </c>
+      <c r="DH9" s="6">
+        <v>1</v>
+      </c>
+      <c r="DI9" s="6">
+        <v>1</v>
+      </c>
+      <c r="DJ9" s="6">
+        <v>1</v>
+      </c>
+      <c r="DK9" s="6">
+        <v>1</v>
+      </c>
+      <c r="DL9" s="6">
+        <v>1</v>
+      </c>
+      <c r="DM9" s="6">
+        <v>1</v>
+      </c>
+      <c r="DN9" s="6">
+        <v>1</v>
+      </c>
+      <c r="DO9" s="6">
+        <v>1</v>
+      </c>
+      <c r="DP9" s="6">
+        <v>1</v>
+      </c>
+      <c r="DQ9" s="6">
+        <v>1</v>
+      </c>
+      <c r="DR9" s="6">
+        <v>1</v>
+      </c>
+      <c r="DS9" s="6">
+        <v>1</v>
+      </c>
+      <c r="DT9" s="6">
+        <v>1</v>
+      </c>
+      <c r="DU9" s="6">
+        <v>1</v>
+      </c>
+      <c r="DV9" s="6">
+        <v>1</v>
+      </c>
+      <c r="DW9" s="6">
+        <v>1</v>
+      </c>
+      <c r="DX9" s="6">
+        <v>1</v>
+      </c>
+      <c r="DY9" s="6">
+        <v>1</v>
+      </c>
+      <c r="DZ9" s="6">
+        <v>1</v>
+      </c>
+      <c r="EA9" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="DG9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DH9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DI9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DJ9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DK9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DL9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DM9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DN9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DO9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DP9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DQ9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DR9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DS9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DT9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DU9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DV9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DW9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DX9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DY9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="DZ9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EA9" s="1" t="s">
+      <c r="EB9" s="6">
+        <v>0</v>
+      </c>
+      <c r="EC9" s="6">
+        <v>0</v>
+      </c>
+      <c r="ED9" s="6">
+        <v>0</v>
+      </c>
+      <c r="EE9" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="EF9" s="6">
+        <v>0</v>
+      </c>
+      <c r="EG9" s="6">
+        <v>1</v>
+      </c>
+      <c r="EH9" s="6">
+        <v>0</v>
+      </c>
+      <c r="EI9" s="6">
+        <v>0</v>
+      </c>
+      <c r="EJ9" s="6">
+        <v>1</v>
+      </c>
+      <c r="EK9" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="EL9" s="6">
+        <v>0</v>
+      </c>
+      <c r="EM9" s="6">
+        <v>0</v>
+      </c>
+      <c r="EN9" s="6">
+        <v>0</v>
+      </c>
+      <c r="EO9" s="6">
+        <v>1</v>
+      </c>
+      <c r="EP9" s="6">
+        <v>0</v>
+      </c>
+      <c r="EQ9" s="6">
+        <v>1</v>
+      </c>
+      <c r="ER9" s="6">
+        <v>0</v>
+      </c>
+      <c r="ES9" s="6">
+        <v>0</v>
+      </c>
+      <c r="ET9" s="6">
+        <v>1</v>
+      </c>
+      <c r="EU9" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="EB9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="EC9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="ED9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="EE9" s="1" t="s">
+      <c r="EV9" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="EF9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="EG9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EH9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="EI9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="EJ9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EK9" s="1" t="s">
+      <c r="EW9" s="6">
+        <v>0</v>
+      </c>
+      <c r="EX9" s="6">
+        <v>0</v>
+      </c>
+      <c r="EY9" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="EZ9" s="6">
+        <v>0</v>
+      </c>
+      <c r="FA9" s="6">
+        <v>1</v>
+      </c>
+      <c r="FB9" s="6">
+        <v>0</v>
+      </c>
+      <c r="FC9" s="6">
+        <v>0</v>
+      </c>
+      <c r="FD9" s="6">
+        <v>1</v>
+      </c>
+      <c r="FE9" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="FF9" s="6">
+        <v>0</v>
+      </c>
+      <c r="FG9" s="6">
+        <v>0</v>
+      </c>
+      <c r="FH9" s="6">
+        <v>0</v>
+      </c>
+      <c r="FI9" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="FJ9" s="6">
+        <v>0</v>
+      </c>
+      <c r="FK9" s="6">
+        <v>1</v>
+      </c>
+      <c r="FL9" s="6">
+        <v>0</v>
+      </c>
+      <c r="FM9" s="6">
+        <v>0</v>
+      </c>
+      <c r="FN9" s="6">
+        <v>1</v>
+      </c>
+      <c r="FO9" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="EL9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="EM9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="EN9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="EO9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EP9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="EQ9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="ER9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="ES9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="ET9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="EU9" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="EV9" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="EW9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="EX9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="EY9" s="1" t="s">
+      <c r="FP9" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="EZ9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FA9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FB9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FC9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FD9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FE9" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="FF9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FG9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FH9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FI9" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="FJ9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FK9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FL9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FM9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="FN9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="FO9" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="FP9" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="FQ9" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="FR9" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="FS9" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="FT9" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="FU9" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="FV9" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="FW9" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="FX9" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="FY9" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="FZ9" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="GA9" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="GB9" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="GC9" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GD9" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="GE9" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="GF9" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="GG9" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="GH9" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="GI9" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="GJ9" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="GK9" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GL9" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GM9" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="GN9" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="GO9" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="GP9" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="GQ9" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GR9" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="GS9" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="GT9" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="GU9" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GV9" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GW9" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="GX9" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="GY9" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="GZ9" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="HA9" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="HB9" s="6">
-        <v>0.0</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:220" x14ac:dyDescent="0.2">
+      <c r="AL11" s="9"/>
+      <c r="CP11" s="9"/>
+      <c r="CY11" s="9"/>
+    </row>
+    <row r="12" spans="1:220" x14ac:dyDescent="0.2">
+      <c r="AL12" s="9"/>
+      <c r="CP12" s="9"/>
+      <c r="CY12" s="9"/>
+    </row>
+    <row r="13" spans="1:220" x14ac:dyDescent="0.2">
+      <c r="AL13" s="9"/>
+      <c r="CP13" s="9"/>
+      <c r="CY13" s="9"/>
+    </row>
+    <row r="14" spans="1:220" x14ac:dyDescent="0.2">
+      <c r="AL14" s="9"/>
+      <c r="CP14" s="9"/>
+      <c r="CY14" s="9"/>
+    </row>
+    <row r="15" spans="1:220" x14ac:dyDescent="0.2">
+      <c r="AL15" s="9"/>
+      <c r="CP15" s="9"/>
+      <c r="CY15" s="9"/>
+    </row>
+    <row r="16" spans="1:220" x14ac:dyDescent="0.2">
+      <c r="AL16" s="9"/>
+      <c r="CP16" s="9"/>
+      <c r="CY16" s="9"/>
+    </row>
+    <row r="17" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="AL17" s="9"/>
+      <c r="CP17" s="9"/>
+      <c r="CY17" s="9"/>
+    </row>
+    <row r="18" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="AL18" s="9"/>
+      <c r="CP18" s="9"/>
+      <c r="CY18" s="9"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>